--- a/data/커리큘럼.xlsx
+++ b/data/커리큘럼.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tcs\kwangmyung\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71956A51-D9FE-487C-B771-E5B686896553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83749DA6-52FF-40DC-A124-8E86725AF370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27900" yWindow="1730" windowWidth="23680" windowHeight="19430" xr2:uid="{195A8535-2419-466A-8EB2-898878BDDF4C}"/>
+    <workbookView xWindow="6350" yWindow="1770" windowWidth="23680" windowHeight="19430" xr2:uid="{195A8535-2419-466A-8EB2-898878BDDF4C}"/>
   </bookViews>
   <sheets>
     <sheet name="광명시" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
   <si>
     <t>주차</t>
   </si>
@@ -273,6 +273,38 @@
   </si>
   <si>
     <t>WYSWYG/WYSWYM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>챗GPT 문서 출판</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털 글쓰기와 출판</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹출판과 도서출판</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>글꼴, 색상, 외양 등</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 작성 자동화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 및 공간 문서생성 자동화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSMU와 문서 프로그래밍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>패러미터 문서 생성</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -497,25 +529,7 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -535,6 +549,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,262 +882,336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2BC2994-33B2-46D8-A712-32752D4FF647}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="21">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="22">
-        <v>45162</v>
-      </c>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="24">
+        <v>45163</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="23"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="21">
+      <c r="A5" s="23">
         <v>2</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="24">
         <v>45176</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="27" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="21">
+      <c r="A8" s="23">
         <v>3</v>
       </c>
-      <c r="B8" s="22">
-        <v>45194</v>
-      </c>
-      <c r="C8" s="25" t="s">
+      <c r="B8" s="24">
+        <v>45190</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="27" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="21">
+      <c r="A11" s="23">
         <v>4</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="24">
         <v>45211</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="23"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="27" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="24"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="21">
+      <c r="A14" s="23">
         <v>5</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="24">
         <v>45225</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="27" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="23"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="24"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="21">
+      <c r="A17" s="23">
         <v>6</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="24">
         <v>45239</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="23">
+        <v>6</v>
+      </c>
+      <c r="B20" s="24">
+        <v>45253</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="23">
+        <v>6</v>
+      </c>
+      <c r="B23" s="24">
+        <v>45267</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D23" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E23" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="23"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27" t="s">
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="24"/>
+      <c r="E25" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1161,10 +1267,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="16">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="27">
         <v>45108</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1178,8 +1284,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="17"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="15"/>
       <c r="D3" s="3" t="s">
         <v>32</v>
@@ -1187,8 +1293,8 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="17"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="15"/>
       <c r="D4" s="4" t="s">
         <v>33</v>
@@ -1196,10 +1302,10 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="16">
+      <c r="A5" s="25">
         <v>2</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="27">
         <v>45115</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -1213,8 +1319,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="17"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="15"/>
       <c r="D6" s="10" t="s">
         <v>7</v>
@@ -1222,10 +1328,10 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="16">
+      <c r="A7" s="25">
         <v>3</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="27">
         <v>45122</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1239,8 +1345,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="17"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="15"/>
       <c r="D8" s="10" t="s">
         <v>9</v>
@@ -1248,10 +1354,10 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="16">
+      <c r="A9" s="25">
         <v>4</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="27">
         <v>45129</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -1265,8 +1371,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="17"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="15"/>
       <c r="D10" s="9" t="s">
         <v>12</v>
@@ -1274,8 +1380,8 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="17"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="15"/>
       <c r="D11" s="10" t="s">
         <v>13</v>
@@ -1283,10 +1389,10 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="16">
+      <c r="A12" s="25">
         <v>5</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="27">
         <v>45136</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1300,8 +1406,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="17"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="15"/>
       <c r="D13" s="9" t="s">
         <v>16</v>
@@ -1309,8 +1415,8 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="17"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="15"/>
       <c r="D14" s="10" t="s">
         <v>17</v>
@@ -1335,10 +1441,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="16">
+      <c r="A16" s="25">
         <v>6</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="27">
         <v>45150</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1352,8 +1458,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="17"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="15"/>
       <c r="D17" s="9" t="s">
         <v>21</v>
@@ -1361,8 +1467,8 @@
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="17"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="15"/>
       <c r="D18" s="10" t="s">
         <v>22</v>
@@ -1370,10 +1476,10 @@
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="16">
+      <c r="A19" s="25">
         <v>7</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="27">
         <v>45157</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -1387,8 +1493,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="17"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="15"/>
       <c r="D20" s="9" t="s">
         <v>25</v>
@@ -1396,8 +1502,8 @@
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="17"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="15"/>
       <c r="D21" s="10" t="s">
         <v>26</v>
@@ -1405,10 +1511,10 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="16">
+      <c r="A22" s="25">
         <v>8</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="27">
         <v>45164</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -1422,8 +1528,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="17"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="15"/>
       <c r="D23" s="9" t="s">
         <v>29</v>
@@ -1431,8 +1537,8 @@
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="15"/>
       <c r="D24" s="10" t="s">
         <v>30</v>
@@ -1441,6 +1547,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A22:A24"/>
@@ -1451,12 +1563,6 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
